--- a/Crime_R_New.xlsx
+++ b/Crime_R_New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Jigsaw Courses\Courses\Descriptive &amp; Inferential Statistics\Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B27E55-4FDB-4AA3-9CE0-8FEBD516B81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EEAADF-EB77-4EC5-AED6-432CA37696BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crime_R" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="2_Freq_CrimeRate" sheetId="4" r:id="rId6"/>
     <sheet name="3_TwoSample_EqVarOneTail" sheetId="16" r:id="rId7"/>
     <sheet name="4_Paired_T_Test_2Col" sheetId="17" r:id="rId8"/>
+    <sheet name="5_ChiSq" sheetId="19" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crime_R!$A$1:$AC$48</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>CrimeRate</t>
   </si>
@@ -219,6 +220,39 @@
   </si>
   <si>
     <t>Youth Employment</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFH </t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>H0 : The data meets the expected distribution</t>
+  </si>
+  <si>
+    <t>H1 : the data does not meet the expected distribution</t>
+  </si>
+  <si>
+    <t>If X2 is greater then 5.99 reject H0</t>
+  </si>
+  <si>
+    <t>with (3-1 = 2 Deg of Freedom) &amp; 5% Alpha</t>
+  </si>
+  <si>
+    <t>Office Mix today are different from what we saw earlier</t>
+  </si>
+  <si>
+    <t>Before</t>
   </si>
 </sst>
 </file>
@@ -737,7 +771,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -750,6 +784,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6843,7 +6878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -7031,4 +7066,105 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63F9E2-7EAA-4A70-B52E-D02A007E6775}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>288</v>
+      </c>
+      <c r="D4">
+        <v>91</v>
+      </c>
+      <c r="E4">
+        <f>SUM(B4:D4)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <f>B2*$E$4</f>
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:D5" si="0">C2*$E$4</f>
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>